--- a/yabuki-a/PM演習矢吹a/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_内部設計書_矢吹研A班 C藩の.xlsx
@@ -1137,6 +1137,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,50 +1212,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,10 +1245,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1675,25 +1675,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>294918</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>659353</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>75245</xdr:rowOff>
+      <xdr:rowOff>42114</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="844826" y="1548848"/>
+          <a:off x="405848" y="1515717"/>
           <a:ext cx="7509070" cy="4804614"/>
           <a:chOff x="2357941" y="1038513"/>
           <a:chExt cx="7509070" cy="4804614"/>
@@ -1701,7 +1701,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="34" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1878,7 +1878,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="35" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2035,7 +2035,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="36" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2185,10 +2185,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="78" idx="2"/>
-            <a:endCxn id="79" idx="0"/>
+            <a:stCxn id="34" idx="2"/>
+            <a:endCxn id="35" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2220,10 +2220,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="79" idx="2"/>
-            <a:endCxn id="80" idx="0"/>
+            <a:stCxn id="35" idx="2"/>
+            <a:endCxn id="36" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2255,7 +2255,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvPr id="39" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2412,7 +2412,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="40" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2569,7 +2569,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="41" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2719,7 +2719,7 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="86" name="グループ化 85"/>
+          <xdr:cNvPr id="42" name="グループ化 41"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2732,7 +2732,7 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="99" name="ひし形 98"/>
+            <xdr:cNvPr id="65" name="ひし形 64"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2876,7 +2876,7 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="100" name="テキスト ボックス 35"/>
+            <xdr:cNvPr id="66" name="テキスト ボックス 35"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3017,10 +3017,10 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+          <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="83" idx="2"/>
-            <a:endCxn id="99" idx="0"/>
+            <a:stCxn id="39" idx="2"/>
+            <a:endCxn id="65" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3052,10 +3052,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+          <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="80" idx="2"/>
-            <a:endCxn id="83" idx="0"/>
+            <a:stCxn id="36" idx="2"/>
+            <a:endCxn id="39" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3087,10 +3087,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+          <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="99" idx="2"/>
-            <a:endCxn id="85" idx="0"/>
+            <a:stCxn id="65" idx="2"/>
+            <a:endCxn id="41" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3122,10 +3122,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+          <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="99" idx="3"/>
-            <a:endCxn id="84" idx="1"/>
+            <a:stCxn id="65" idx="3"/>
+            <a:endCxn id="40" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3157,7 +3157,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="テキスト ボックス 49"/>
+          <xdr:cNvPr id="49" name="テキスト ボックス 49"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3300,7 +3300,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="テキスト ボックス 47"/>
+          <xdr:cNvPr id="50" name="テキスト ボックス 47"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3443,7 +3443,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="フローチャート : 手操作入力 51"/>
+          <xdr:cNvPr id="51" name="フローチャート : 手操作入力 51"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3600,7 +3600,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="52" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3777,7 +3777,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="フローチャート : 定義済み処理 27"/>
+          <xdr:cNvPr id="57" name="フローチャート : 定義済み処理 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3934,10 +3934,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+          <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="84" idx="3"/>
-            <a:endCxn id="93" idx="1"/>
+            <a:stCxn id="40" idx="3"/>
+            <a:endCxn id="51" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3969,10 +3969,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+          <xdr:cNvPr id="59" name="直線矢印コネクタ 58"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="93" idx="2"/>
-            <a:endCxn id="94" idx="0"/>
+            <a:stCxn id="51" idx="2"/>
+            <a:endCxn id="52" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -4004,16 +4004,406 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+          <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="94" idx="2"/>
-            <a:endCxn id="95" idx="0"/>
+            <a:stCxn id="52" idx="2"/>
+            <a:endCxn id="57" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
             <a:off x="9245037" y="5128241"/>
             <a:ext cx="0" cy="282547"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3876751" y="2466179"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>店名管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="フローチャート : 磁気ディスク 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6120079" y="4779923"/>
+            <a:ext cx="1261003" cy="443139"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>コメント管理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>テーブル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="3"/>
+            <a:endCxn id="61" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3652600" y="2687749"/>
+            <a:ext cx="224151" cy="2882"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="40" idx="2"/>
+            <a:endCxn id="62" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6742054" y="4426836"/>
+            <a:ext cx="8527" cy="353087"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -4428,10 +4818,10 @@
       <c r="O1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="69">
+      <c r="P1" s="59">
         <v>41807</v>
       </c>
-      <c r="Q1" s="70"/>
+      <c r="Q1" s="60"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -4448,11 +4838,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="72"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -4497,17 +4887,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -4518,15 +4908,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -4537,15 +4927,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -4593,19 +4983,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -4614,17 +5004,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -4633,17 +5023,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -4653,17 +5043,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -4674,15 +5064,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -4693,15 +5083,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -4712,15 +5102,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -4731,15 +5121,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -4770,15 +5160,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4791,13 +5181,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4810,13 +5200,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4829,13 +5219,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4848,13 +5238,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4867,13 +5257,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4886,13 +5276,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4946,16 +5336,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="55"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -4967,22 +5357,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="67" t="s">
+      <c r="I29" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63" t="s">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63" t="s">
+      <c r="L29" s="57"/>
+      <c r="M29" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63" t="s">
+      <c r="N29" s="57"/>
+      <c r="O29" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="68"/>
+      <c r="P29" s="58"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -4994,16 +5384,16 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="57" t="s">
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="P30" s="58"/>
+      <c r="P30" s="73"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -5015,14 +5405,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="60"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -5034,14 +5424,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -5053,14 +5443,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -5072,14 +5462,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5091,14 +5481,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="62"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5122,6 +5512,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I30:J35"/>
+    <mergeCell ref="O30:P35"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="K30:L35"/>
+    <mergeCell ref="M30:N35"/>
     <mergeCell ref="I28:P28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="O29:P29"/>
@@ -5131,12 +5527,6 @@
     <mergeCell ref="D10:N12"/>
     <mergeCell ref="E13:M17"/>
     <mergeCell ref="F19:L25"/>
-    <mergeCell ref="I30:J35"/>
-    <mergeCell ref="O30:P35"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="K30:L35"/>
-    <mergeCell ref="M30:N35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5155,7 +5545,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5170,25 +5560,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5268,62 +5658,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="54">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="69">
         <v>1</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="54" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -5908,17 +6298,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5953,26 +6343,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81" t="e">
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -6097,10 +6487,10 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="30" t="s">
         <v>23</v>
       </c>
@@ -6110,11 +6500,11 @@
       <c r="I8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -6128,16 +6518,16 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -6151,16 +6541,16 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -6174,16 +6564,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -6197,16 +6587,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -6227,9 +6617,9 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -6243,14 +6633,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -6264,14 +6654,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -6285,14 +6675,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -6306,14 +6696,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -6327,14 +6717,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -6348,14 +6738,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6369,14 +6759,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -6390,14 +6780,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -6411,14 +6801,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -6432,14 +6822,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -6453,14 +6843,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -6474,14 +6864,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -6495,14 +6885,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="83"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="85"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -6744,25 +7134,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -6779,12 +7156,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
